--- a/b.xlsx
+++ b/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15465" windowHeight="12375"/>
+    <workbookView windowWidth="12255" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>装甲车</t>
   </si>
   <si>
-    <t>华师</t>
+    <t>华中师范大学</t>
   </si>
   <si>
-    <t>计算机</t>
+    <t>计算机学院</t>
   </si>
   <si>
     <t>董某</t>
@@ -64,14 +64,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,48 +522,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,97 +576,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1022,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1059,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1076,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
